--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/20/seed2/result_data_RandomForest.xlsx
@@ -468,13 +468,13 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.4333</v>
+        <v>-12.6893</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.26940000000001</v>
+        <v>16.32140000000001</v>
       </c>
     </row>
     <row r="3">
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.986200000000002</v>
+        <v>5.863</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.141999999999999</v>
+        <v>-7.216099999999996</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.47</v>
+        <v>16.45430000000001</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.346700000000002</v>
+        <v>-7.397099999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.431800000000003</v>
+        <v>5.768100000000003</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.534200000000003</v>
+        <v>6.225400000000004</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.77009999999999</v>
+        <v>-12.1274</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.3212</v>
+        <v>16.1923</v>
       </c>
     </row>
     <row r="20">
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.069900000000001</v>
+        <v>8.849700000000006</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.379800000000005</v>
+        <v>8.611700000000006</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -842,13 +842,13 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.1081</v>
+        <v>-12.6383</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.165799999999994</v>
+        <v>-8.099899999999996</v>
       </c>
       <c r="E24" t="n">
-        <v>16.68290000000002</v>
+        <v>16.52990000000001</v>
       </c>
     </row>
     <row r="25">
@@ -856,13 +856,13 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.339900000000004</v>
+        <v>5.389700000000004</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.5917</v>
+        <v>-13.1181</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.900899999999989</v>
+        <v>-9.056899999999992</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.174600000000003</v>
+        <v>6.626399999999999</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -893,13 +893,13 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-11.77999999999999</v>
+        <v>-11.48789999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.94689999999999</v>
+        <v>16.95049999999999</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.116300000000003</v>
+        <v>5.131700000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -944,13 +944,13 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.3231</v>
+        <v>-13.2856</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>16.0121</v>
+        <v>16.041</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.3385</v>
+        <v>-13.63499999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.25170000000001</v>
+        <v>16.13890000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.01970000000001</v>
+        <v>17.05790000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.6442</v>
+        <v>-12.73730000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.484499999999995</v>
+        <v>9.186299999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1134,7 +1134,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.030799999999997</v>
+        <v>-7.852399999999996</v>
       </c>
       <c r="E41" t="n">
         <v>16.34</v>
@@ -1148,13 +1148,13 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.623</v>
+        <v>-12.4347</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.38340000000001</v>
+        <v>16.24750000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.5995</v>
+        <v>-11.59339999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.265100000000002</v>
+        <v>-8.214700000000001</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.20979999999999</v>
+        <v>-11.49899999999999</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.5387</v>
+        <v>-11.4996</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,13 +1332,13 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.353699999999996</v>
+        <v>5.179100000000001</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-5.884199999999998</v>
+        <v>-5.688500000000001</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1369,13 +1369,13 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.63360000000001</v>
+        <v>-13.3831</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.39150000000001</v>
+        <v>16.51620000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1386,10 +1386,10 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-11.059</v>
+        <v>-11.2408</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.068599999999998</v>
+        <v>-8.153700000000001</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.081699999999999</v>
+        <v>5.173599999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.7428</v>
+        <v>-13.7434</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.853599999999993</v>
+        <v>-8.939399999999997</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1423,10 +1423,10 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.269300000000007</v>
+        <v>-8.519800000000007</v>
       </c>
       <c r="E58" t="n">
-        <v>16.24050000000002</v>
+        <v>16.22200000000002</v>
       </c>
     </row>
     <row r="59">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.993799999999999</v>
+        <v>4.409499999999998</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1454,7 +1454,7 @@
         <v>3.07</v>
       </c>
       <c r="C60" t="n">
-        <v>-13.81439999999999</v>
+        <v>-13.57279999999999</v>
       </c>
       <c r="D60" t="n">
         <v>-9.630000000000001</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.150299999999994</v>
+        <v>-8.136299999999999</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.810300000000001</v>
+        <v>-7.893400000000002</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.983799999999994</v>
+        <v>-7.916099999999997</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.118000000000003</v>
+        <v>5.721900000000005</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>16.91340000000001</v>
+        <v>17.16310000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.403599999999996</v>
+        <v>5.514499999999994</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.2203</v>
+        <v>-8.1867</v>
       </c>
       <c r="E70" t="n">
-        <v>16.75429999999999</v>
+        <v>16.88949999999999</v>
       </c>
     </row>
     <row r="71">
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.298899999999996</v>
+        <v>-7.336399999999994</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.35770000000001</v>
+        <v>-12.4115</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,13 +1692,13 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-13.08300000000001</v>
+        <v>-12.92040000000001</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>17.12259999999999</v>
+        <v>17.12689999999998</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>16.34690000000001</v>
+        <v>16.2726</v>
       </c>
     </row>
     <row r="76">
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.203100000000004</v>
+        <v>9.063400000000003</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.289399999999998</v>
+        <v>5.826499999999997</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.72010000000001</v>
+        <v>16.68659999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.93989999999999</v>
+        <v>16.8172</v>
       </c>
     </row>
     <row r="85">
@@ -1899,10 +1899,10 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.417400000000002</v>
+        <v>-8.987099999999998</v>
       </c>
       <c r="E86" t="n">
-        <v>16.6805</v>
+        <v>16.05890000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1947,10 +1947,10 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.70040000000001</v>
+        <v>-10.72840000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.601100000000002</v>
+        <v>-5.633200000000004</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.7959</v>
+        <v>-12.4146</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>4.864999999999998</v>
+        <v>4.814299999999998</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.3341</v>
+        <v>-11.7086</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.631599999999999</v>
+        <v>5.679399999999998</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.7899</v>
+        <v>16.7396</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.64350000000001</v>
+        <v>16.72670000000001</v>
       </c>
     </row>
     <row r="98">
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.773900000000003</v>
+        <v>-8.983699999999997</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2131,13 +2131,13 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>4.924500000000001</v>
+        <v>4.481299999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.686100000000003</v>
+        <v>-8.8371</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.560799999999995</v>
+        <v>-7.678899999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
